--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fish/Documents/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fish/Projects/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,22 @@
   </si>
   <si>
     <t>In progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unusual Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy will damage by player without player attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -792,10 +808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -873,6 +889,23 @@
         <v>43100</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43104</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,23 +213,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Unusual Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy will damage by player without player attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Kuen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>In progress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unusual Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy will damage by player without player attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forest</t>
+    <t>Player pass through terrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -560,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -648,8 +660,14 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
       <c r="F4" s="1">
         <v>43096</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -676,14 +694,8 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
       <c r="F6" s="1">
         <v>43100</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -730,8 +742,14 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
       <c r="F9" s="1">
         <v>43100</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -808,15 +826,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -891,19 +909,30 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
       </c>
       <c r="F4" s="1">
         <v>43104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fish/Projects/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fish/Documents/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,39 +213,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unusual Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy will damage by player without player attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kuen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>In progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player pass through terrain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +545,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -660,14 +632,8 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
       <c r="F4" s="1">
         <v>43096</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -694,8 +660,14 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" s="1">
         <v>43100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -742,14 +714,8 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
       <c r="F9" s="1">
         <v>43100</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -826,15 +792,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -907,34 +873,6 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="1">
-        <v>43104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:H2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,15 +82,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Camera will auto move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seems related to attack function/animation of player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Camera will auto move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seems related to attack function/animation of player</t>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP bar to show player hp</t>
+  </si>
+  <si>
+    <t>EXP bar to show player exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New village</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build a new village in a new scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack leg animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When player attacking and move at the same time, leg will not move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,70 +157,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Mission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP bar to show player hp</t>
-  </si>
-  <si>
-    <t>EXP bar to show player exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New village</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build a new village in a new scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack leg animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When player attacking and move at the same time, leg will not move</t>
+    <t>Optimize player jump</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -169,15 +173,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Scene</t>
+    <t>Solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unusual Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy will damage by player without player attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,11 +205,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimize player jump</t>
+    <t>Kuen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player pass through terrain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,55 +217,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Solved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Harry</t>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI - skill and menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>In progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unusual Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy will damage by player without player attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kuen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player pass through terrain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -610,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -624,13 +624,13 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1">
         <v>43096</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -640,9 +640,6 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -652,7 +649,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -661,18 +658,18 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1">
         <v>43096</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -686,27 +683,27 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
       </c>
       <c r="F6" s="1">
         <v>43100</v>
       </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -717,13 +714,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -734,30 +728,27 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1">
         <v>43100</v>
       </c>
+      <c r="G9" s="1">
+        <v>43106</v>
+      </c>
       <c r="H9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -768,36 +759,36 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1">
         <v>43100</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1">
         <v>43100</v>
@@ -805,16 +796,21 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1">
         <v>43103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -861,24 +857,24 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1">
         <v>43096</v>
@@ -887,21 +883,21 @@
         <v>43103</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1">
         <v>43100</v>
@@ -909,16 +905,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1">
         <v>43104</v>
@@ -926,13 +922,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fish/Documents/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fish/Projects/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,15 +82,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Camera will auto move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seems related to attack function/animation of player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Camera will auto move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seems related to attack function/animation of player</t>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP bar to show player hp</t>
+  </si>
+  <si>
+    <t>EXP bar to show player exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New village</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build a new village in a new scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack leg animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When player attacking and move at the same time, leg will not move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,70 +157,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Mission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP bar to show player hp</t>
-  </si>
-  <si>
-    <t>EXP bar to show player exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New village</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build a new village in a new scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack leg animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When player attacking and move at the same time, leg will not move</t>
+    <t>Optimize player jump</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -169,15 +173,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Scene</t>
+    <t>Solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unusual Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy will damage by player without player attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,11 +205,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimize player jump</t>
+    <t>Kuen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player pass through terrain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,23 +217,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Solved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Harry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI - skill and menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -542,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -582,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -596,13 +624,13 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1">
         <v>43096</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -612,9 +640,6 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -624,7 +649,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -632,13 +657,19 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
       <c r="F4" s="1">
         <v>43096</v>
       </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -652,33 +683,27 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1">
         <v>43100</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -689,13 +714,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -706,24 +728,27 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
       </c>
       <c r="F9" s="1">
         <v>43100</v>
       </c>
+      <c r="G9" s="1">
+        <v>43106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -734,36 +759,36 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1">
         <v>43100</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1">
         <v>43100</v>
@@ -771,16 +796,21 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1">
         <v>43103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -792,15 +822,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -827,24 +857,24 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1">
         <v>43096</v>
@@ -853,24 +883,52 @@
         <v>43103</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1">
         <v>43100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,70 @@
   </si>
   <si>
     <t>In progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,18 +634,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -627,7 +691,7 @@
         <v>37</v>
       </c>
       <c r="F2" s="1">
-        <v>43096</v>
+        <v>43103</v>
       </c>
       <c r="H2" t="s">
         <v>38</v>
@@ -644,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>43096</v>
+        <v>43103</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -661,10 +725,13 @@
         <v>46</v>
       </c>
       <c r="F4" s="1">
-        <v>43096</v>
+        <v>43103</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43107</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -677,8 +744,14 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
       <c r="F5" s="1">
-        <v>43100</v>
+        <v>43103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -692,7 +765,7 @@
         <v>52</v>
       </c>
       <c r="F6" s="1">
-        <v>43100</v>
+        <v>43103</v>
       </c>
       <c r="H6" t="s">
         <v>53</v>
@@ -709,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>43100</v>
+        <v>43103</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -723,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="1">
-        <v>43100</v>
+        <v>43103</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -737,7 +810,7 @@
         <v>43</v>
       </c>
       <c r="F9" s="1">
-        <v>43100</v>
+        <v>43103</v>
       </c>
       <c r="G9" s="1">
         <v>43106</v>
@@ -754,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>43100</v>
+        <v>43103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -774,10 +847,13 @@
         <v>36</v>
       </c>
       <c r="F11" s="1">
-        <v>43100</v>
+        <v>43103</v>
+      </c>
+      <c r="G11" s="1">
+        <v>43106</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -790,8 +866,14 @@
       <c r="D12" t="s">
         <v>32</v>
       </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
       <c r="F12" s="1">
-        <v>43100</v>
+        <v>43103</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -811,6 +893,108 @@
       </c>
       <c r="D14" t="s">
         <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="1">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1">
+        <v>43103</v>
       </c>
     </row>
   </sheetData>
@@ -830,8 +1014,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fish/Projects/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cckhh\Documents\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="1128" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Defect!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Todo '!$A$1:$H$4</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,24 +311,42 @@
   <si>
     <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy attack</t>
+  </si>
+  <si>
+    <t>Enemy could still attack once after its dead. It leads to the level up times cut to once only</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>All UI item should be private</t>
+  </si>
+  <si>
+    <t>7jan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -356,16 +374,19 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -634,24 +655,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -667,17 +688,17 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -690,14 +711,14 @@
       <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="1">
-        <v>43103</v>
+      <c r="F2" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -707,11 +728,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -724,17 +745,17 @@
       <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="1">
-        <v>43103</v>
-      </c>
-      <c r="G4" s="1">
-        <v>43107</v>
+      <c r="F4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -747,14 +768,14 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1">
-        <v>43103</v>
+      <c r="F5" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -764,14 +785,14 @@
       <c r="E6" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="1">
-        <v>43103</v>
+      <c r="F6" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -781,11 +802,11 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -795,11 +816,11 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -809,28 +830,28 @@
       <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="1">
-        <v>43103</v>
-      </c>
-      <c r="G9" s="1">
-        <v>43106</v>
+      <c r="F9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="1">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -846,17 +867,17 @@
       <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="1">
-        <v>43103</v>
-      </c>
-      <c r="G11" s="1">
-        <v>43106</v>
+      <c r="F11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -869,156 +890,169 @@
       <c r="E12" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="1">
-        <v>43103</v>
+      <c r="F12" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="1">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F13" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="1">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F14" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="1">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="1">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F16" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="1">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="1">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F18" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>59</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="1">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>63</v>
       </c>
       <c r="D20" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="1">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>65</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="1">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>66</v>
       </c>
       <c r="D22" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="1">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>68</v>
       </c>
       <c r="D23" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="1">
-        <v>43103</v>
+      <c r="F23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1034,17 +1068,17 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1060,17 +1094,17 @@
       <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1">
-        <v>43096</v>
-      </c>
-      <c r="G2" s="1">
-        <v>43103</v>
+      <c r="F2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1083,11 +1117,11 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1100,11 +1134,11 @@
       <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="1">
-        <v>43104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1113,6 +1147,26 @@
       </c>
       <c r="D5" t="s">
         <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cckhh\Documents\FYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fish/Projects/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Defect!$A$1:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Todo '!$A$1:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Todo '!$A$1:$H$26</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI - skill and menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kuen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,11 +269,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy attack</t>
+  </si>
+  <si>
+    <t>Enemy could still attack once after its dead. It leads to the level up times cut to once only</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>All UI item should be private</t>
+  </si>
+  <si>
+    <t>Up level animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>In progress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kit</t>
+    <t>Harry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -285,68 +352,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Classes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item drop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy attack</t>
-  </si>
-  <si>
-    <t>Enemy could still attack once after its dead. It leads to the level up times cut to once only</t>
-  </si>
-  <si>
-    <t>Forest</t>
-  </si>
-  <si>
-    <t>Fish</t>
-  </si>
-  <si>
-    <t>All UI item should be private</t>
-  </si>
-  <si>
-    <t>7jan</t>
+    <t>7 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Attribute - UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff - UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -377,7 +434,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -655,24 +712,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -698,7 +756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -712,13 +770,13 @@
         <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -728,11 +786,20 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -746,16 +813,16 @@
         <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -769,30 +836,33 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -802,11 +872,20 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -816,11 +895,17 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -831,16 +916,16 @@
         <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -848,10 +933,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -868,16 +953,16 @@
         <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -888,16 +973,16 @@
         <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -905,10 +990,10 @@
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -916,121 +1001,169 @@
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="D23" t="s">
         <v>65</v>
       </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="F23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>66</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>75</v>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H4"/>
+  <autoFilter ref="A1:H26">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="In progress"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1041,18 +1174,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.19921875" style="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1078,7 +1211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1095,16 +1228,16 @@
         <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1118,10 +1251,10 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1135,10 +1268,10 @@
         <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1149,24 +1282,24 @@
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,6 +385,10 @@
   </si>
   <si>
     <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +440,14 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -447,6 +458,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:H58" totalsRowShown="0">
+  <autoFilter ref="A1:H58"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Issue"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Scene"/>
+    <tableColumn id="4" name="Creator"/>
+    <tableColumn id="5" name="PIC"/>
+    <tableColumn id="6" name="Create date" dataDxfId="1"/>
+    <tableColumn id="7" name="Finish date" dataDxfId="0"/>
+    <tableColumn id="8" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -712,11 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -799,7 +826,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -905,7 +932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -936,7 +963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1035,18 +1062,24 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1057,7 +1090,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1068,7 +1101,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1079,7 +1112,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1090,7 +1123,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1101,7 +1134,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -1112,7 +1145,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1123,7 +1156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1134,7 +1167,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -1145,7 +1178,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -1157,16 +1190,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H26">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="In progress"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +389,10 @@
   </si>
   <si>
     <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +747,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1056,10 +1060,13 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>74</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fish/Projects/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cckhh\Documents\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="2256" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,24 +394,33 @@
   <si>
     <t>In progress</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min damage 1</t>
+  </si>
+  <si>
+    <t>14 Jan</t>
+  </si>
+  <si>
+    <t>db and save</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -442,7 +451,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -744,24 +753,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -787,7 +796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -807,7 +816,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -830,7 +839,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -853,7 +862,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -876,7 +885,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -893,7 +902,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -916,7 +925,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -936,7 +945,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -956,7 +965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -967,7 +976,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -993,7 +1002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1013,7 +1022,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1024,7 +1033,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1035,7 +1044,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1052,7 +1061,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1086,7 +1095,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1097,7 +1106,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1108,7 +1117,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1119,7 +1128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1130,7 +1139,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1141,7 +1150,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -1152,7 +1161,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -1185,7 +1194,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -1194,6 +1203,31 @@
       </c>
       <c r="F27" s="1" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1214,14 +1248,14 @@
       <selection activeCell="E19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.1640625" style="1"/>
+    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1247,7 +1281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1273,7 +1307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1290,7 +1324,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1307,7 +1341,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1321,7 +1355,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>68</v>
       </c>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500"/>
+    <workbookView xWindow="3384" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="98">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,6 +403,15 @@
   </si>
   <si>
     <t>db and save</t>
+  </si>
+  <si>
+    <t>15 jan</t>
+  </si>
+  <si>
+    <t>kuen</t>
+  </si>
+  <si>
+    <t>add a super algo to cal the 1 damage</t>
   </si>
 </sst>
 </file>
@@ -755,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -898,6 +907,9 @@
       <c r="F6" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="H6" t="s">
         <v>52</v>
       </c>
@@ -941,6 +953,9 @@
       <c r="F8" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="H8" t="s">
         <v>77</v>
       </c>
@@ -1209,14 +1224,20 @@
       <c r="A28" t="s">
         <v>92</v>
       </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
       <c r="D28" t="s">
         <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:8">

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500"/>
+    <workbookView xWindow="4512" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="101">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +412,15 @@
   </si>
   <si>
     <t>add a super algo to cal the 1 damage</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>gcd</t>
+  </si>
+  <si>
+    <t>fish</t>
   </si>
 </sst>
 </file>
@@ -762,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1249,6 +1258,28 @@
       </c>
       <c r="E29" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cckhh\Documents\FYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fish/Projects/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4512" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,35 +241,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy attack</t>
+  </si>
+  <si>
+    <t>Enemy could still attack once after its dead. It leads to the level up times cut to once only</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>All UI item should be private</t>
+  </si>
+  <si>
+    <t>Up level animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>In progress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Transaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player Attribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Complete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Story</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kit</t>
+    <t>7 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Attribute - UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff - UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 Jan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -277,62 +380,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Classes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item drop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy attack</t>
-  </si>
-  <si>
-    <t>Enemy could still attack once after its dead. It leads to the level up times cut to once only</t>
-  </si>
-  <si>
-    <t>Forest</t>
-  </si>
-  <si>
-    <t>Fish</t>
-  </si>
-  <si>
-    <t>All UI item should be private</t>
-  </si>
-  <si>
-    <t>Up level animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 Jan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 Jan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player UI</t>
+    <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -340,11 +388,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Harry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In progress</t>
+    <t>min damage 1</t>
+  </si>
+  <si>
+    <t>14 Jan</t>
+  </si>
+  <si>
+    <t>db and save</t>
+  </si>
+  <si>
+    <t>15 jan</t>
+  </si>
+  <si>
+    <t>kuen</t>
+  </si>
+  <si>
+    <t>add a super algo to cal the 1 damage</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>gcd</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>14 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 Jan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -352,93 +431,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7 Jan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player Attribute - UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff - UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 Jan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Complete</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min damage 1</t>
-  </si>
-  <si>
-    <t>14 Jan</t>
-  </si>
-  <si>
-    <t>db and save</t>
-  </si>
-  <si>
-    <t>15 jan</t>
-  </si>
-  <si>
-    <t>kuen</t>
-  </si>
-  <si>
-    <t>add a super algo to cal the 1 damage</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>gcd</t>
-  </si>
-  <si>
-    <t>fish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -469,7 +481,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -773,22 +785,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -814,7 +826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -828,13 +840,13 @@
         <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -845,19 +857,19 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -871,16 +883,16 @@
         <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -894,18 +906,18 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>75</v>
-      </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -914,16 +926,16 @@
         <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -937,16 +949,16 @@
         <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -960,16 +972,16 @@
         <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -980,16 +992,16 @@
         <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -997,10 +1009,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1017,16 +1029,16 @@
         <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1037,16 +1049,16 @@
         <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1054,10 +1066,10 @@
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1065,221 +1077,233 @@
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
         <v>61</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
+      <c r="D23" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
+      <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>72</v>
       </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>73</v>
-      </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
         <v>85</v>
       </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>92</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>97</v>
       </c>
-      <c r="D28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
+      <c r="D31" t="s">
         <v>98</v>
       </c>
-      <c r="D30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" t="s">
-        <v>100</v>
-      </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1300,14 +1324,14 @@
       <selection activeCell="E19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.19921875" style="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1333,7 +1357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1350,16 +1374,16 @@
         <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1373,10 +1397,10 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1390,10 +1414,10 @@
         <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1404,24 +1428,24 @@
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
         <v>68</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>70</v>
       </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="108">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,6 +432,22 @@
   </si>
   <si>
     <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refactor code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refactor the code not done by ourselves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 Jan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1283,7 +1299,7 @@
         <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
         <v>98</v>
@@ -1297,13 +1313,27 @@
         <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
         <v>98</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,22 @@
   </si>
   <si>
     <t>18 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character Creation Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only include job selection and name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +537,11 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:H58" totalsRowShown="0">
-  <autoFilter ref="A1:H58"/>
+  <autoFilter ref="A1:H58">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="Issue"/>
     <tableColumn id="2" name="Description"/>
@@ -799,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -842,7 +862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -862,7 +882,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -885,7 +905,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -908,7 +928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -931,7 +951,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -951,7 +971,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -974,7 +994,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -997,7 +1017,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1028,7 +1048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1054,7 +1074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1096,7 +1116,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1113,7 +1133,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -1130,7 +1150,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1257,7 +1277,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -1293,6 +1313,9 @@
       <c r="F29" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
@@ -1334,6 +1357,26 @@
       </c>
       <c r="F32" s="1" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
     <sheet name="Defect" sheetId="2" r:id="rId2"/>
+    <sheet name="Remark" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Defect!$A$1:$H$2</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="126">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,6 +465,62 @@
   </si>
   <si>
     <t>In progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Migreate light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log console</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 - 199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 - 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 - 299</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1377,6 +1434,42 @@
       </c>
       <c r="H33" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1526,4 +1619,44 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="131">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,6 +521,26 @@
   </si>
   <si>
     <t>200 - 299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player attack cd missing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solved</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1484,16 +1504,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="D19:E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
@@ -1565,6 +1585,12 @@
       <c r="F3" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -1612,6 +1638,17 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="130">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -480,10 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Migreate light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Forest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,23 +520,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Player attack cd missing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21 Jan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 Jan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1469,27 +1465,44 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
         <v>115</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>116</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1504,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1586,10 +1599,10 @@
         <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1638,17 +1651,6 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1673,23 +1675,23 @@
         <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
         <v>121</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
         <v>124</v>
-      </c>
-      <c r="B3" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="137">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,6 +537,34 @@
   </si>
   <si>
     <t>23 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Void space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Void around the ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 Jan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1503,6 +1531,31 @@
       </c>
       <c r="H37" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="160">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +565,97 @@
   </si>
   <si>
     <t>24 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set spawn object parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check getComponenet success</t>
+  </si>
+  <si>
+    <t>Make some public var NonSerialized</t>
+  </si>
+  <si>
+    <t>Singletons</t>
+  </si>
+  <si>
+    <t>http://wiki.unity3d.com/index.php/Singleton</t>
+  </si>
+  <si>
+    <r>
+      <t>Change isAttacking, isLoading to Handle Input (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>state machines), can include game over state</t>
+    </r>
+  </si>
+  <si>
+    <t>Add HandleInput()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add constraints to prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequiredComponent, DisallowMultipleComponent, SelectionBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link prefabs to prefabs</t>
+  </si>
+  <si>
+    <t>do not link instances to instances.</t>
+  </si>
+  <si>
+    <t>Use scriptable objects for level data</t>
+  </si>
+  <si>
+    <t>http://kzunity.blogspot.hk/2015/05/scriptableobject_4.html</t>
+  </si>
+  <si>
+    <t>Three Character share control method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gameprogrammingpatterns.com/command.html</t>
+  </si>
+  <si>
+    <t>All spawn object should use resource pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gameprogrammingpatterns.com/flyweight.html</t>
+  </si>
+  <si>
+    <t>Multiple same object should use flyweight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 Jan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +663,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -587,6 +678,25 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -606,15 +716,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -637,10 +752,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:H58" totalsRowShown="0">
-  <autoFilter ref="A1:H58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:H59" totalsRowShown="0">
+  <autoFilter ref="A1:H59">
     <filterColumn colId="7">
-      <filters blank="1"/>
+      <filters blank="1">
+        <filter val="In progress"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
@@ -920,15 +1037,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -1052,7 +1169,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1175,7 +1292,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1217,7 +1334,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1234,7 +1351,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -1251,7 +1368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1448,16 +1565,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1516,7 +1630,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>128</v>
       </c>
@@ -1530,7 +1644,7 @@
         <v>129</v>
       </c>
       <c r="H37" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1558,12 +1672,175 @@
         <v>136</v>
       </c>
     </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B44" r:id="rId1"/>
+    <hyperlink ref="B46" r:id="rId2" display="RequiredComponent"/>
+    <hyperlink ref="B48" r:id="rId3"/>
+    <hyperlink ref="B49" r:id="rId4"/>
+    <hyperlink ref="B51" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="161">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,6 +656,10 @@
   </si>
   <si>
     <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,13 +757,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:H59" totalsRowShown="0">
-  <autoFilter ref="A1:H59">
-    <filterColumn colId="7">
-      <filters blank="1">
-        <filter val="In progress"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H59"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Issue"/>
     <tableColumn id="2" name="Description"/>
@@ -1040,7 +1038,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1080,7 +1078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1098,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1123,7 +1121,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1146,7 +1144,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1189,7 +1187,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1212,7 +1210,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1235,7 +1233,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1266,7 +1264,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1359,7 +1357,7 @@
         <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>73</v>
@@ -1495,7 +1493,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -1630,7 +1628,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>128</v>
       </c>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,10 +346,6 @@
   </si>
   <si>
     <t>7 Jan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pending</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -660,6 +656,14 @@
   </si>
   <si>
     <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 Feb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1038,7 +1042,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1094,8 +1098,11 @@
       <c r="F2" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1109,16 +1116,16 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
         <v>86</v>
-      </c>
-      <c r="H3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1181,7 +1188,7 @@
         <v>73</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
@@ -1227,10 +1234,10 @@
         <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1351,19 +1358,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1374,7 +1381,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>73</v>
@@ -1484,10 +1491,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>73</v>
@@ -1495,30 +1502,30 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
         <v>70</v>
@@ -1527,7 +1534,7 @@
         <v>70</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H29" t="s">
         <v>77</v>
@@ -1535,102 +1542,102 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
         <v>97</v>
       </c>
-      <c r="D31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" t="s">
         <v>156</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
         <v>108</v>
-      </c>
-      <c r="B33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" t="s">
-        <v>109</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" t="s">
         <v>112</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
         <v>115</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1639,191 +1646,191 @@
         <v>32</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" t="s">
         <v>130</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" t="s">
         <v>133</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>134</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
         <v>104</v>
       </c>
-      <c r="B40" t="s">
-        <v>105</v>
-      </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" t="s">
-        <v>81</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1927,10 +1934,10 @@
         <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
         <v>125</v>
-      </c>
-      <c r="H3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -2003,23 +2010,23 @@
         <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
         <v>123</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fish/Projects/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cckhh\Documents\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="1116" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="166">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -666,23 +666,35 @@
     <t>6 Feb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Save Object</t>
+  </si>
+  <si>
+    <t>Can't save object if the bag has not been enabled.</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>10 Mar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -696,7 +708,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -736,8 +748,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1041,22 +1053,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1082,7 +1094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1128,7 +1140,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1174,7 +1186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1194,7 +1206,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1217,7 +1229,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1240,7 +1252,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1260,7 +1272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1271,7 +1283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1297,7 +1309,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1317,7 +1329,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1328,7 +1340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1339,7 +1351,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1356,7 +1368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -1373,7 +1385,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1390,7 +1402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1401,7 +1413,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1412,7 +1424,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1423,7 +1435,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1434,7 +1446,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1445,7 +1457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1456,7 +1468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1467,7 +1479,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1489,7 +1501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -1500,7 +1512,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -1523,7 +1535,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -1540,7 +1552,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -1554,7 +1566,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -1568,7 +1580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -1579,7 +1591,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>107</v>
       </c>
@@ -1599,7 +1611,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -1610,7 +1622,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -1624,7 +1636,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -1635,7 +1647,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -1652,7 +1664,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -1663,7 +1675,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -1677,7 +1689,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -1691,7 +1703,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
         <v>136</v>
       </c>
@@ -1702,7 +1714,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
         <v>137</v>
       </c>
@@ -1713,7 +1725,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
         <v>138</v>
       </c>
@@ -1724,7 +1736,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>139</v>
       </c>
@@ -1738,7 +1750,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -1752,7 +1764,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -1766,7 +1778,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
         <v>145</v>
       </c>
@@ -1780,7 +1792,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
         <v>147</v>
       </c>
@@ -1794,7 +1806,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -1808,7 +1820,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>151</v>
       </c>
@@ -1819,7 +1831,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -1852,20 +1864,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.1640625" style="1"/>
+    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1891,7 +1903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1917,7 +1929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1940,7 +1952,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1957,7 +1969,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1971,7 +1983,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1986,6 +1998,23 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2003,9 +2032,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -2013,7 +2042,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -2021,7 +2050,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>122</v>
       </c>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2232" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="170">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,6 +677,18 @@
   </si>
   <si>
     <t>10 Mar</t>
+  </si>
+  <si>
+    <t>new char texture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the char in new char are so shinnydue to the texture in new char is modified by ghost </t>
+  </si>
+  <si>
+    <t>NewCharacter</t>
+  </si>
+  <si>
+    <t>30 Mar</t>
   </si>
 </sst>
 </file>
@@ -1053,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1864,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2015,6 +2027,26 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3350" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="173">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,6 +689,15 @@
   </si>
   <si>
     <t>30 Mar</t>
+  </si>
+  <si>
+    <t>remove japanese comment</t>
+  </si>
+  <si>
+    <t>too much japanese comment</t>
+  </si>
+  <si>
+    <t>02 Apr</t>
   </si>
 </sst>
 </file>
@@ -1063,20 +1072,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1855,6 +1864,23 @@
       </c>
       <c r="F51" s="1" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1878,15 +1904,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.19921875" style="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2064,7 +2090,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3350" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="4470" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="178">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,6 +698,21 @@
   </si>
   <si>
     <t>02 Apr</t>
+  </si>
+  <si>
+    <t>loading bar</t>
+  </si>
+  <si>
+    <t>loading for scene changing</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>mute at setting and staating page</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5"/>
@@ -1873,6 +1888,9 @@
       <c r="B52" t="s">
         <v>171</v>
       </c>
+      <c r="C52" t="s">
+        <v>176</v>
+      </c>
       <c r="D52" t="s">
         <v>70</v>
       </c>
@@ -1880,6 +1898,43 @@
         <v>70</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>172</v>
       </c>
     </row>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="5592" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,23 +496,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 - 199</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0 - 99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200 - 299</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -713,6 +697,27 @@
   </si>
   <si>
     <t>mute at setting and staating page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equipment </t>
+  </si>
+  <si>
+    <t>100-199</t>
+  </si>
+  <si>
+    <t>boot 141</t>
+  </si>
+  <si>
+    <t>bracer 131</t>
+  </si>
+  <si>
+    <t>breast 121</t>
+  </si>
+  <si>
+    <t>weapon 111</t>
+  </si>
+  <si>
+    <t>cap 101</t>
   </si>
 </sst>
 </file>
@@ -1089,18 +1094,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1147,10 +1152,10 @@
         <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1412,7 +1417,7 @@
         <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>73</v>
@@ -1618,13 +1623,13 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1660,7 +1665,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
         <v>114</v>
@@ -1685,7 +1690,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1694,35 +1699,35 @@
         <v>32</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1741,155 +1746,155 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
         <v>80</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
         <v>80</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
         <v>80</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
         <v>80</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
         <v>80</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D49" t="s">
         <v>80</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
         <v>80</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s">
         <v>80</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D52" t="s">
         <v>70</v>
@@ -1898,18 +1903,18 @@
         <v>70</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>70</v>
@@ -1918,15 +1923,15 @@
         <v>70</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D54" t="s">
         <v>70</v>
@@ -1935,7 +1940,7 @@
         <v>70</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1963,11 +1968,11 @@
       <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.1640625" style="1"/>
+    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2039,10 +2044,10 @@
         <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2095,30 +2100,30 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
         <v>70</v>
@@ -2127,7 +2132,7 @@
         <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2139,36 +2144,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="E5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cckhh\Documents\FYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fish/Projects/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5592" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="185">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,10 +378,6 @@
   </si>
   <si>
     <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In progress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -643,10 +639,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6 Feb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -718,24 +710,48 @@
   </si>
   <si>
     <t>cap 101</t>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -749,7 +765,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -789,8 +805,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1094,22 +1110,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1152,13 +1168,13 @@
         <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1197,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1204,7 +1220,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1227,7 +1243,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1241,13 +1257,13 @@
         <v>73</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1270,7 +1286,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1287,13 +1303,13 @@
         <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1313,7 +1329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1324,7 +1340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1350,7 +1366,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1370,7 +1386,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1381,7 +1397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1392,7 +1408,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1406,10 +1422,10 @@
         <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -1417,16 +1433,16 @@
         <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1440,10 +1456,10 @@
         <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1454,7 +1470,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1465,7 +1481,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1476,7 +1492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1487,7 +1503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1498,7 +1514,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1509,7 +1525,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1520,7 +1536,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1531,7 +1547,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1541,8 +1557,11 @@
       <c r="F26" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -1553,32 +1572,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>90</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>91</v>
       </c>
       <c r="D29" t="s">
         <v>70</v>
@@ -1587,110 +1606,110 @@
         <v>70</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>95</v>
-      </c>
-      <c r="D30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>96</v>
       </c>
       <c r="D31" t="s">
         <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
         <v>151</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s">
         <v>107</v>
-      </c>
-      <c r="B33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" t="s">
-        <v>108</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
+      <c r="D34" t="s">
         <v>111</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>114</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>117</v>
       </c>
       <c r="D36" t="s">
         <v>80</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1699,202 +1718,205 @@
         <v>32</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>124</v>
       </c>
-      <c r="H37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
+      <c r="D38" t="s">
         <v>125</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="H38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>128</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>129</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
         <v>103</v>
-      </c>
-      <c r="B40" t="s">
-        <v>104</v>
       </c>
       <c r="D40" t="s">
         <v>84</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
         <v>80</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="D44" t="s">
         <v>80</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
         <v>80</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="D46" t="s">
         <v>80</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="D48" t="s">
         <v>80</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="D49" t="s">
         <v>80</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s">
         <v>80</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" t="s">
         <v>80</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
         <v>70</v>
@@ -1903,18 +1925,18 @@
         <v>70</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
+      <c r="C53" t="s">
         <v>169</v>
-      </c>
-      <c r="B53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" t="s">
-        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>70</v>
@@ -1923,15 +1945,15 @@
         <v>70</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D54" t="s">
         <v>70</v>
@@ -1940,7 +1962,7 @@
         <v>70</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1964,18 +1986,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.19921875" style="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2001,7 +2023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2027,7 +2049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2044,13 +2066,13 @@
         <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" t="s">
         <v>120</v>
       </c>
-      <c r="H3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -2067,7 +2089,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2081,7 +2103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -2098,32 +2120,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
         <v>158</v>
-      </c>
-      <c r="B7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" t="s">
-        <v>160</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>162</v>
-      </c>
-      <c r="B8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" t="s">
-        <v>164</v>
       </c>
       <c r="D8" t="s">
         <v>70</v>
@@ -2132,7 +2154,7 @@
         <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2146,47 +2168,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
         <v>174</v>
-      </c>
-      <c r="B2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="E5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="D6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="E7" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fish/Projects/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cckhh\Documents\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1116" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="188">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -735,23 +735,32 @@
     <t>Complete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cant set main cam after create</t>
+  </si>
+  <si>
+    <t>double click thecreate could produce the bug</t>
+  </si>
+  <si>
+    <t>12 Apr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -765,7 +774,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -805,8 +814,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1114,18 +1123,18 @@
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1206,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1243,7 +1252,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1263,7 +1272,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1286,7 +1295,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1329,7 +1338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1340,7 +1349,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1366,7 +1375,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1386,7 +1395,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1397,7 +1406,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1408,7 +1417,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -1442,7 +1451,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1459,7 +1468,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1470,7 +1479,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1481,7 +1490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1492,7 +1501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1503,7 +1512,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1514,7 +1523,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1525,7 +1534,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1536,7 +1545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1547,7 +1556,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1561,7 +1570,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -1572,7 +1581,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -1595,7 +1604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -1612,7 +1621,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -1626,7 +1635,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -1640,7 +1649,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -1651,7 +1660,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -1671,7 +1680,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -1682,7 +1691,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -1696,7 +1705,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -1707,7 +1716,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -1724,7 +1733,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -1738,7 +1747,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -1752,7 +1761,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
         <v>131</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
         <v>132</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
         <v>133</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>134</v>
       </c>
@@ -1813,7 +1822,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -1827,7 +1836,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -1841,7 +1850,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
         <v>140</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
         <v>142</v>
       </c>
@@ -1869,7 +1878,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -1883,7 +1892,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -1894,7 +1903,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -1908,7 +1917,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>164</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -1948,7 +1957,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>171</v>
       </c>
@@ -1984,20 +1993,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.1640625" style="1"/>
+    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2023,7 +2032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2049,7 +2058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2072,7 +2081,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2103,7 +2112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -2120,7 +2129,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -2137,7 +2146,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -2155,6 +2164,26 @@
       </c>
       <c r="F8" s="1" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2172,9 +2201,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -2182,7 +2211,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -2190,12 +2219,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="E5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="D6" t="s">
         <v>177</v>
       </c>
@@ -2206,7 +2235,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="E7" t="s">
         <v>174</v>
       </c>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2232" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="189">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -743,6 +743,9 @@
   </si>
   <si>
     <t>12 Apr</t>
+  </si>
+  <si>
+    <t>outdate trading system</t>
   </si>
 </sst>
 </file>
@@ -1117,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1972,6 +1975,23 @@
       </c>
       <c r="F54" s="1" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1995,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500"/>
+    <workbookView xWindow="4464" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="191">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -746,6 +746,12 @@
   </si>
   <si>
     <t>outdate trading system</t>
+  </si>
+  <si>
+    <t>drag and drop window</t>
+  </si>
+  <si>
+    <t>force open bag when open shop</t>
   </si>
 </sst>
 </file>
@@ -1120,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1991,6 +1997,40 @@
         <v>70</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>187</v>
       </c>
     </row>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4464" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500"/>
+    <workbookView xWindow="5580" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="194">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,6 +752,15 @@
   </si>
   <si>
     <t>force open bag when open shop</t>
+  </si>
+  <si>
+    <t>improve the agi char</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>13 Apr</t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2032,6 +2041,23 @@
       </c>
       <c r="F57" s="1" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500"/>
+    <workbookView xWindow="6696" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="195">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -761,6 +761,9 @@
   </si>
   <si>
     <t>13 Apr</t>
+  </si>
+  <si>
+    <t>add number to shortcut</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2057,6 +2060,23 @@
         <v>70</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>193</v>
       </c>
     </row>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6696" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500"/>
+    <workbookView xWindow="7812" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="197">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -764,6 +764,12 @@
   </si>
   <si>
     <t>add number to shortcut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archer cant get enemy status </t>
+  </si>
+  <si>
+    <t>null pointer</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
@@ -2099,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2290,6 +2296,26 @@
       </c>
       <c r="F9" s="1" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7812" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="8928" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="195">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -764,12 +764,6 @@
   </si>
   <si>
     <t>add number to shortcut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archer cant get enemy status </t>
-  </si>
-  <si>
-    <t>null pointer</t>
   </si>
 </sst>
 </file>
@@ -2105,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2296,26 +2290,6 @@
       </c>
       <c r="F9" s="1" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8928" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="10044" yWindow="456" windowWidth="25596" windowHeight="15456" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="196">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -764,6 +764,9 @@
   </si>
   <si>
     <t>add number to shortcut</t>
+  </si>
+  <si>
+    <t>delay arrow</t>
   </si>
 </sst>
 </file>
@@ -859,8 +862,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:H59" totalsRowShown="0">
-  <autoFilter ref="A1:H59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:H60" totalsRowShown="0">
+  <autoFilter ref="A1:H60"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Issue"/>
     <tableColumn id="2" name="Description"/>
@@ -1138,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2077,6 +2080,23 @@
         <v>70</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2101,7 +2121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
